--- a/Lesson 7/HW_7.xlsx
+++ b/Lesson 7/HW_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veronika.shnip\Lesson 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F9D724-BCF3-4202-8929-06B300A76339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC464492-DF3B-4691-B9F4-2733C460FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{4CECCAD1-353A-4525-80D8-BC42FBCE8430}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{4CECCAD1-353A-4525-80D8-BC42FBCE8430}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>order_id</t>
   </si>
   <si>
-    <t xml:space="preserve">0NF ни в какой </t>
-  </si>
-  <si>
     <t>PK - car_id. неключевые поля функционально полно зависят от первичного ключа.</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>cars_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0NF </t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,9 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43691897-B050-44B3-BDA0-5B0B75922F09}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1485,7 +1482,7 @@
         <v>84</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1534,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A3136B-8DE5-4469-AEEC-E48C56BFBB27}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,7 +1624,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1941,7 +1938,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2103,7 +2100,7 @@
         <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2374,7 +2371,7 @@
       <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2394,11 +2391,11 @@
         <v>40</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -2419,7 +2416,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -2440,7 +2437,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -2461,7 +2458,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -2482,7 +2479,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -2503,7 +2500,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1">
         <v>6</v>
       </c>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3150,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20777A9-7ABB-49AC-A28A-425F939B9563}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
